--- a/3 Axis Data_4.xlsx
+++ b/3 Axis Data_4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Radiation Pattern Testing</t>
   </si>
@@ -27,25 +27,13 @@
     <t>DUT Label:</t>
   </si>
   <si>
-    <t>LAB3</t>
-  </si>
-  <si>
     <t>Customer:</t>
-  </si>
-  <si>
-    <t>TEST</t>
   </si>
   <si>
     <t>DUT Serial Number:</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Tested By:</t>
-  </si>
-  <si>
-    <t>MSC</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -628,7 +616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,73 +645,65 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>43089</v>
+        <v>43090</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D2" t="s"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" t="s"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s"/>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J7" s="6" t="n">
         <v>100000000</v>
@@ -731,7 +711,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6">
         <f>MAX(B11:B111)</f>
@@ -758,7 +738,7 @@
         <v/>
       </c>
       <c r="I8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J8" s="6" t="n">
         <v>200000</v>
@@ -766,7 +746,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6">
         <f>AVERAGE(B11:B111)</f>
@@ -793,7 +773,7 @@
         <v/>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J9" s="6" t="n">
         <v>3</v>
@@ -801,28 +781,28 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0.025</v>
@@ -851,7 +831,7 @@
         <v>-14.42130279828272</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -877,7 +857,7 @@
         <v>-15.01926522612106</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J12" s="6" t="n">
         <v>0</v>
@@ -906,7 +886,7 @@
         <v>-15.70824453912517</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J13" s="6" t="n">
         <v>0</v>
@@ -935,7 +915,7 @@
         <v>-17.07387963292685</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
@@ -964,7 +944,7 @@
         <v>-18.58330081252982</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J15" s="6" t="n">
         <v>0</v>
@@ -993,7 +973,7 @@
         <v>-20.26615050107532</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J16" s="6" t="n">
         <v>-21.99020831627661</v>
@@ -1022,7 +1002,7 @@
         <v>-22.7577979615589</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J17" s="6" t="n">
         <v>0</v>
@@ -1051,7 +1031,7 @@
         <v>-24.98118543359968</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J18" s="6" t="n">
         <v>0</v>
@@ -1080,7 +1060,7 @@
         <v>-26.63237009524892</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J19" s="6" t="n">
         <v>-21.99020831627661</v>
@@ -3200,29 +3180,6 @@
       </c>
       <c r="G111" s="6" t="n">
         <v>-14.77171133056006</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="6" t="n">
-        <v>716.4</v>
-      </c>
-      <c r="B112" s="6" t="n">
-        <v>-39.31365222325854</v>
-      </c>
-      <c r="C112" s="6" t="n">
-        <v>8.127629812308724</v>
-      </c>
-      <c r="D112" s="6" t="n">
-        <v>-65.35058735805303</v>
-      </c>
-      <c r="E112" s="6" t="n">
-        <v>-17.90930532248577</v>
-      </c>
-      <c r="F112" s="6" t="n">
-        <v>-61.86258483384998</v>
-      </c>
-      <c r="G112" s="6" t="n">
-        <v>-14.42130279828272</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3217,7 @@
   <sheetData>
     <row customHeight="1" ht="50" r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3268,24 +3225,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>43089</v>
+        <v>43090</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="6" t="s"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s"/>
     </row>
     <row r="5" spans="1:6"/>
   </sheetData>
